--- a/biology/Botanique/Sansevieria_fasciata/Sansevieria_fasciata.xlsx
+++ b/biology/Botanique/Sansevieria_fasciata/Sansevieria_fasciata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sansevieria fasciata, également appelée Dracaena fasciata[1], est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sansevieria fasciata, également appelée Dracaena fasciata, est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria. 
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante succulente, Sansevieria fasciata est une espèce de sansevières à feuilles de taille moyenne (38 à 84 cm de longueur et 3,8 à 11,5 cm de largeur), lancéolées, assez épaisses (4 mm), rigides et lisses, de couleur vert-clair sur la face supérieure et blanc-vert sur l'inférieure avec des zébrures marquées typiques de vert-foncé avec des bords initialement verts devenant blanchâtres à rougeâtres[2]. Elles poussent directement depuis leur rhyzome par deux à cinq feuilles en touffe. Les inflorescences mesurent jusqu'à 60 cm de longueur avec des groupes de trois à quatre fleurs[2].
-Découverte à la fin du XIXe siècle par le botaniste français Marie Maxime Cornu, elle a été formellement identifiée comme espèce à part entière en 1903 par les botanistes français Joseph Gérôme et Oscar Labroy[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante succulente, Sansevieria fasciata est une espèce de sansevières à feuilles de taille moyenne (38 à 84 cm de longueur et 3,8 à 11,5 cm de largeur), lancéolées, assez épaisses (4 mm), rigides et lisses, de couleur vert-clair sur la face supérieure et blanc-vert sur l'inférieure avec des zébrures marquées typiques de vert-foncé avec des bords initialement verts devenant blanchâtres à rougeâtres. Elles poussent directement depuis leur rhyzome par deux à cinq feuilles en touffe. Les inflorescences mesurent jusqu'à 60 cm de longueur avec des groupes de trois à quatre fleurs.
+Découverte à la fin du XIXe siècle par le botaniste français Marie Maxime Cornu, elle a été formellement identifiée comme espèce à part entière en 1903 par les botanistes français Joseph Gérôme et Oscar Labroy.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est originaire d'Afrique centrale, présente dans les pays du golfe de Guinée au Cameroun et au Congo[4],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est originaire d'Afrique centrale, présente dans les pays du golfe de Guinée au Cameroun et au Congo,.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce présente un synonyme[5],[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce présente un synonyme, :
 Dracaena fasciata (Cornu, ex Gérôme &amp; Labroy, 1903 ; Byng &amp; Christenh., 2018)</t>
         </is>
       </c>
